--- a/feebacks-timesheets/Sprint6_Timesheet.xlsx
+++ b/feebacks-timesheets/Sprint6_Timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amede\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarpa\Desktop\thesis\feebacks-timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21EEEDE-80E6-4BD6-8AD5-6AD02B8BC570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96BEF3-BD8B-4B47-84EC-3AFF58278F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>SPRINT 6 - TIMESHEET</t>
   </si>
@@ -91,9 +90,6 @@
     <t>ESTIMATION</t>
   </si>
   <si>
-    <t>BAD ESTIMATED</t>
-  </si>
-  <si>
     <t>REASONS</t>
   </si>
   <si>
@@ -103,20 +99,47 @@
     <t>We did not took in consideration to add the 'tag' in the notification data model. We encoutereed also some difficulites in testing</t>
   </si>
   <si>
-    <t>Reasons why a user story was under/over stimated (if was)</t>
-  </si>
-  <si>
     <t>We had problems with test, in particular with snapshots.</t>
   </si>
   <si>
-    <t>yes;underestimated</t>
+    <t>Possible indicators</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>spike</t>
+  </si>
+  <si>
+    <t>short name</t>
+  </si>
+  <si>
+    <t>new_tech</t>
+  </si>
+  <si>
+    <t>new_func</t>
+  </si>
+  <si>
+    <t>user story begins a new set of functionalities</t>
+  </si>
+  <si>
+    <t>user story requires new technology</t>
+  </si>
+  <si>
+    <t>user story is a spike</t>
+  </si>
+  <si>
+    <t>yes;underestimated;other</t>
+  </si>
+  <si>
+    <t>BAD ESTIMATED (yes/no, under/over, indicator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -124,38 +147,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="30"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -211,43 +259,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -472,64 +523,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -559,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -591,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -622,10 +682,10 @@
       <c r="J6" s="2">
         <v>6</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -656,11 +716,11 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -691,11 +751,11 @@
       <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -726,10 +786,10 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -740,10 +800,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -786,331 +846,384 @@
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="5">
         <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5">
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="5">
         <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="4">
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="4">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>20</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="A16:M20"/>
+    <mergeCell ref="D21:M21"/>
     <mergeCell ref="D25:M30"/>
-    <mergeCell ref="A1:J3"/>
     <mergeCell ref="A13:J15"/>
-    <mergeCell ref="A16:J18"/>
-    <mergeCell ref="A19:J20"/>
     <mergeCell ref="D22:M22"/>
     <mergeCell ref="D23:M23"/>
     <mergeCell ref="D24:M24"/>
